--- a/docs/UnitTesting_IssueMsg .xlsx
+++ b/docs/UnitTesting_IssueMsg .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venv\.__Projetos\Avalcorp\ESG_VM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2196BA69-A1FF-4135-84AD-EBA14AE5AF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8BC1CA-8A4B-45A8-89C9-8463777E1C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="2" activeTab="3" xr2:uid="{AF37AB55-194C-4C17-A308-5DCA304A4FDA}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Tests em TreatIssue_Opening.yml" sheetId="2" r:id="rId2"/>
     <sheet name="Skills x Teams" sheetId="3" r:id="rId3"/>
     <sheet name="Issues Format and Responsabilit" sheetId="4" r:id="rId4"/>
-    <sheet name="Acceptance" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
   <si>
     <t>ISSUE_ASSIGNEES_NAME</t>
   </si>
@@ -277,12 +276,60 @@
   <si>
     <t>Enhancement </t>
   </si>
+  <si>
+    <t>ISSUE ACTIONS</t>
+  </si>
+  <si>
+    <t>1. NEW ISSUE</t>
+  </si>
+  <si>
+    <t>1.1. Atribuição de issue: Atribuir o issue a um ou mais colaboradores para que eles saibam que são responsáveis por trabalhar nele.</t>
+  </si>
+  <si>
+    <t>1.2. Rotulagem de issue: Adicionar rótulos ao issue para categorizar e filtrar issues de maneira mais eficaz.</t>
+  </si>
+  <si>
+    <t>1.3. Referenciando issues: Se um issue está relacionado a outro issue ou pull request, você pode referenciá-lo usando # seguido pelo número do issue.</t>
+  </si>
+  <si>
+    <t>1.4. Milestone do issue: Se o issue faz parte de um conjunto maior de tarefas ou projeto, você pode adicionar o issue a um milestone.</t>
+  </si>
+  <si>
+    <t>2. COMMENTS</t>
+  </si>
+  <si>
+    <t>3. PULL REQUEST</t>
+  </si>
+  <si>
+    <t>3.1. Testes automatizados: Dependendo do projeto, pode haver testes automatizados que são executados quando um pull request é criado.</t>
+  </si>
+  <si>
+    <t>4. PULL REQUEST ANSWER</t>
+  </si>
+  <si>
+    <t>5. PULL REQUEST ACCEPANCE</t>
+  </si>
+  <si>
+    <t>5.1. Merge de pull request: Depois que um pull request é aceito, ele precisa ser mesclado com o branch principal.</t>
+  </si>
+  <si>
+    <t>6. GISTS</t>
+  </si>
+  <si>
+    <t>7. CLOSE</t>
+  </si>
+  <si>
+    <t>7.1. Referenciando o pull request/commit que resolveu o issue: Quando um issue é resolvido, é uma boa prática referenciar o pull request ou commit que resolveu o issue.</t>
+  </si>
+  <si>
+    <t>2.1. Atribuir a colaborador, a TASK relacionada ao COMMENTS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +348,21 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -353,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,12 +445,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,6 +454,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,30 +994,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
@@ -955,10 +1026,10 @@
       <c r="B3" s="9">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -972,8 +1043,8 @@
       <c r="B4" s="9">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="H4" s="8" t="s">
         <v>46</v>
       </c>
@@ -985,8 +1056,8 @@
       <c r="B5" s="9">
         <v>14</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="H5" s="8" t="s">
         <v>47</v>
       </c>
@@ -998,8 +1069,8 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
@@ -1070,15 +1141,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662486F5-DD9A-4C28-87E7-50C66D2DE293}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.04296875" customWidth="1"/>
     <col min="2" max="2" width="12.54296875" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
@@ -1090,207 +1161,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A2" s="11"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="B4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="B5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="7" t="s">
         <v>65</v>
       </c>
@@ -1314,22 +1385,22 @@
       <c r="A11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1337,22 +1408,22 @@
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1360,22 +1431,22 @@
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="B13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1383,22 +1454,22 @@
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="B14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1406,22 +1477,22 @@
       <c r="A15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="B15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1429,22 +1500,22 @@
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="B16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1452,67 +1523,151 @@
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="B17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A21" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A23" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A24" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A25" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A26" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A27" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A28" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A29" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A31" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A32" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A34" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A37" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A38" s="19"/>
+    </row>
+    <row r="39" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A39" s="19"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40" s="17"/>
+    </row>
+    <row r="41" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A41" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F399A73C-DBCA-4210-B0F3-5A42F984C53C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/docs/UnitTesting_IssueMsg .xlsx
+++ b/docs/UnitTesting_IssueMsg .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venv\.__Projetos\Avalcorp\ESG_VM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8BC1CA-8A4B-45A8-89C9-8463777E1C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36AB082-B243-47E0-8EEA-9C4F99B7E1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="2" activeTab="3" xr2:uid="{AF37AB55-194C-4C17-A308-5DCA304A4FDA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
   <si>
     <t>ISSUE_ASSIGNEES_NAME</t>
   </si>
@@ -298,31 +298,55 @@
     <t>2. COMMENTS</t>
   </si>
   <si>
-    <t>3. PULL REQUEST</t>
-  </si>
-  <si>
-    <t>3.1. Testes automatizados: Dependendo do projeto, pode haver testes automatizados que são executados quando um pull request é criado.</t>
-  </si>
-  <si>
-    <t>4. PULL REQUEST ANSWER</t>
-  </si>
-  <si>
-    <t>5. PULL REQUEST ACCEPANCE</t>
-  </si>
-  <si>
-    <t>5.1. Merge de pull request: Depois que um pull request é aceito, ele precisa ser mesclado com o branch principal.</t>
-  </si>
-  <si>
-    <t>6. GISTS</t>
-  </si>
-  <si>
-    <t>7. CLOSE</t>
-  </si>
-  <si>
-    <t>7.1. Referenciando o pull request/commit que resolveu o issue: Quando um issue é resolvido, é uma boa prática referenciar o pull request ou commit que resolveu o issue.</t>
-  </si>
-  <si>
     <t>2.1. Atribuir a colaborador, a TASK relacionada ao COMMENTS</t>
+  </si>
+  <si>
+    <t>3. DoR</t>
+  </si>
+  <si>
+    <t>4. PULL REQUEST</t>
+  </si>
+  <si>
+    <t>4.1. Testes automatizados: Dependendo do projeto, pode haver testes automatizados que são executados quando um pull request é criado.</t>
+  </si>
+  <si>
+    <t>5. PULL REQUEST ANSWER</t>
+  </si>
+  <si>
+    <t>6. PULL REQUEST ACCEPANCE</t>
+  </si>
+  <si>
+    <t>6.1. Merge de pull request: Depois que um pull request é aceito, ele precisa ser mesclado com o branch principal.</t>
+  </si>
+  <si>
+    <t>7. GISTS</t>
+  </si>
+  <si>
+    <t>8. CLOSE</t>
+  </si>
+  <si>
+    <t>8.1. Referenciando o pull request/commit que resolveu o issue: Quando um issue é resolvido, é uma boa prática referenciar o pull request ou commit que resolveu o issue.</t>
+  </si>
+  <si>
+    <t>1.5. Criticality Defined</t>
+  </si>
+  <si>
+    <t>1.6. Skill Definition</t>
+  </si>
+  <si>
+    <t>1.7. Code of Conduct</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Manual (Sugestion ?)</t>
+  </si>
+  <si>
+    <t>Manual or rev_it</t>
   </si>
 </sst>
 </file>
@@ -455,12 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -469,6 +487,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,30 +1018,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="D1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
@@ -1026,10 +1050,10 @@
       <c r="B3" s="9">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1043,8 +1067,8 @@
       <c r="B4" s="9">
         <v>6</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="H4" s="8" t="s">
         <v>46</v>
       </c>
@@ -1056,8 +1080,8 @@
       <c r="B5" s="9">
         <v>14</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>47</v>
       </c>
@@ -1069,8 +1093,8 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
@@ -1141,16 +1165,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662486F5-DD9A-4C28-87E7-50C66D2DE293}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="56.04296875" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
@@ -1161,22 +1185,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A2" s="15"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="13" t="s">
         <v>57</v>
       </c>
@@ -1348,20 +1372,20 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="7" t="s">
         <v>65</v>
       </c>
@@ -1566,99 +1590,140 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>76</v>
       </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>77</v>
       </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>78</v>
       </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>79</v>
       </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A29" s="17" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A32" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A35" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A38" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A30" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A31" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A32" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A33" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A34" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A35" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A36" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A37" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="A38" s="19"/>
-    </row>
-    <row r="39" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="A39" s="19"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A40" s="17"/>
-    </row>
-    <row r="41" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="A41" s="18"/>
+    <row r="41" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A41" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A42" s="17"/>
+    </row>
+    <row r="43" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A43" s="17"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A45" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/docs/UnitTesting_IssueMsg .xlsx
+++ b/docs/UnitTesting_IssueMsg .xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venv\.__Projetos\Avalcorp\ESG_VM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36AB082-B243-47E0-8EEA-9C4F99B7E1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FFF70-EFDA-4711-ACC3-AAB1FCCFB4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="2" activeTab="3" xr2:uid="{AF37AB55-194C-4C17-A308-5DCA304A4FDA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="811" firstSheet="1" activeTab="3" xr2:uid="{AF37AB55-194C-4C17-A308-5DCA304A4FDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Testa Formato de Msg no Issue" sheetId="1" r:id="rId1"/>
     <sheet name="Tests em TreatIssue_Opening.yml" sheetId="2" r:id="rId2"/>
     <sheet name="Skills x Teams" sheetId="3" r:id="rId3"/>
     <sheet name="Issues Format and Responsabilit" sheetId="4" r:id="rId4"/>
+    <sheet name="Kanban Bug Issue" sheetId="5" r:id="rId5"/>
+    <sheet name="Kanban FReq Issue" sheetId="6" r:id="rId6"/>
+    <sheet name="Kanban NFReq Issue" sheetId="7" r:id="rId7"/>
+    <sheet name="Kanban Enabler Issue" sheetId="8" r:id="rId8"/>
+    <sheet name="Kanban Enhance Issue" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
   <si>
     <t>ISSUE_ASSIGNEES_NAME</t>
   </si>
@@ -292,12 +297,6 @@
     <t>1.3. Referenciando issues: Se um issue está relacionado a outro issue ou pull request, você pode referenciá-lo usando # seguido pelo número do issue.</t>
   </si>
   <si>
-    <t>1.4. Milestone do issue: Se o issue faz parte de um conjunto maior de tarefas ou projeto, você pode adicionar o issue a um milestone.</t>
-  </si>
-  <si>
-    <t>2. COMMENTS</t>
-  </si>
-  <si>
     <t>2.1. Atribuir a colaborador, a TASK relacionada ao COMMENTS</t>
   </si>
   <si>
@@ -319,9 +318,6 @@
     <t>6.1. Merge de pull request: Depois que um pull request é aceito, ele precisa ser mesclado com o branch principal.</t>
   </si>
   <si>
-    <t>7. GISTS</t>
-  </si>
-  <si>
     <t>8. CLOSE</t>
   </si>
   <si>
@@ -340,13 +336,57 @@
     <t>Automatic</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t>Manual (Sugestion ?)</t>
   </si>
   <si>
-    <t>Manual or rev_it</t>
+    <t>Manual (Check Automaticly)</t>
+  </si>
+  <si>
+    <t>Owner or rev_it</t>
+  </si>
+  <si>
+    <t>8.2. Release</t>
+  </si>
+  <si>
+    <t>2. COMMENTS (TASKs)</t>
+  </si>
+  <si>
+    <t>6.2. Tagging</t>
+  </si>
+  <si>
+    <t>7. GISTS (?)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.4. Milestone do issue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Se o issue faz parte de um conjunto maior de tarefas ou projeto, você pode adicionar o issue a um milestone.</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Initial Considerations</t>
+  </si>
+  <si>
+    <t>OBS</t>
   </si>
 </sst>
 </file>
@@ -392,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,8 +451,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -435,11 +481,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,6 +576,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,17 +1272,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662486F5-DD9A-4C28-87E7-50C66D2DE293}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="56.04296875" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
     <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
@@ -1589,150 +1696,257 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="B21" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" s="18"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="21" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B23" s="27"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
-        <v>94</v>
+      <c r="B24" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A25" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
-        <v>94</v>
+      <c r="B25" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A26" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A28" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A29" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31" s="21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A27" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A28" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A29" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A30" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A31" s="15" t="s">
-        <v>80</v>
-      </c>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" s="21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A33" s="15" t="s">
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A35" s="15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A34" s="15" t="s">
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A36" s="21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A35" s="15" t="s">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37" s="21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A36" s="15" t="s">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A38" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A37" s="15" t="s">
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41" s="21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A38" s="15" t="s">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A42" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A39" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A40" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A41" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="A42" s="17"/>
-    </row>
-    <row r="43" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="A43" s="17"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A44" s="15"/>
-    </row>
-    <row r="45" spans="1:1" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="A45" s="16"/>
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A43" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A44" s="17"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:2" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A46" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8091F9-8276-4EBA-959C-9675E2CE363F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE9E530-6434-40D5-85A1-15A72B92A7C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357937-32BA-4486-B49A-4437D20089DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD53C8E-C643-4BCE-BF25-2F68FDF70BBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA838CB1-E8D0-4DF8-AF2E-6EB4C9BF74C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/UnitTesting_IssueMsg .xlsx
+++ b/docs/UnitTesting_IssueMsg .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venv\.__Projetos\Avalcorp\ESG_VM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FFF70-EFDA-4711-ACC3-AAB1FCCFB4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924057AB-CF7B-4854-8FDA-D74F2B180B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="811" firstSheet="1" activeTab="3" xr2:uid="{AF37AB55-194C-4C17-A308-5DCA304A4FDA}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>ISSUE_ASSIGNEES_NAME</t>
   </si>
@@ -224,27 +224,12 @@
     <t>Enabler</t>
   </si>
   <si>
-    <t>Functional Requirement</t>
-  </si>
-  <si>
     <t>No Functional Requirement</t>
   </si>
   <si>
-    <t>PROBLEM DESCRIPTION</t>
-  </si>
-  <si>
-    <t>ISSUE OPENING SETUP</t>
-  </si>
-  <si>
-    <t>REQUIREMENT DESCRIPTION</t>
-  </si>
-  <si>
     <t>PROJECT MANAGEMENT PART</t>
   </si>
   <si>
-    <t>USER STORY</t>
-  </si>
-  <si>
     <t>ACCEPTANCE</t>
   </si>
   <si>
@@ -257,15 +242,9 @@
     <t>OWNER</t>
   </si>
   <si>
-    <t>TASKS</t>
-  </si>
-  <si>
     <t>Only if no assignee and undefined skills and/or criticity</t>
   </si>
   <si>
-    <t>Only if Owner or Assignee = col_it or rev_it</t>
-  </si>
-  <si>
     <t>If required by TASK</t>
   </si>
   <si>
@@ -275,10 +254,6 @@
     <t>ISSUE TEMPLATES PARTS</t>
   </si>
   <si>
-    <t>BRANCH CREATION AND TREATMENT
-(Automatic Creation)</t>
-  </si>
-  <si>
     <t>Enhancement </t>
   </si>
   <si>
@@ -355,6 +330,36 @@
   </si>
   <si>
     <t>7. GISTS (?)</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Initial Considerations</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SETUP</t>
+  </si>
+  <si>
+    <t>1. **Milestone**: No GitHub, um "milestone" é usado para rastrear o progresso de grupos de issues ou pull requests em um repositório¹². Quando você cria um "milestone", você pode associá-lo a issues e pull requests. Isso permite que você tenha um registro de quais itens precisam ser resolvidos para que o "milestone" esteja completo¹².
+2. **Feature**: No contexto do Git Flow, uma "feature" é uma branch temporária que dura até que o merge seja realizado com as branches principais³. Essa branch é usada para desenvolver novas funcionalidades para o projeto³.
+3. **Tag**: No Git, uma "tag" é uma referência a um ponto específico no histórico do projeto. Ela é usada, na maioria das vezes, para capturar um ponto no histórico que é usado para uma versão marcada (ou lançamento) do projeto.
+4. **Release**: No GitHub, uma "release" é criada quando você entrega algo ao seu usuário final. Por exemplo, quando você lança uma nova versão do seu software. As "releases" são usadas para o gerenciamento de versões e permitem que você apresente informações adicionais aos seus usuários, como notas de lançamento, documentação, etc.
+Espero que isso ajude! Se você tiver mais perguntas, fique à vontade para perguntar. 😊
+Origem: conversa com o Bing, 16/01/2024
+(1) Para que serve o campo Milestone no github?. https://pt.stackoverflow.com/questions/160607/para-que-serve-o-campo-milestone-no-github.
+(2) Milestones e Projects no Github - Stack Overflow em Português. https://pt.stackoverflow.com/questions/357535/milestones-e-projects-no-github.
+(3) Git Flow: entenda o que é, como e quando utilizar | Alura. https://www.alura.com.br/artigos/git-flow-o-que-e-como-quando-utilizar.
+(4) About milestones - GitHub Docs. https://docs.github.com/en/issues/using-labels-and-milestones-to-track-work/about-milestones.
+(5) undefined. https://help.github.com/articles/about-issues/%29.
+(6) undefined. https://help.github.com/articles/about-project-boards/%29.
+(7) undefined. https://help.github.com/articles/about-milestones/%29.</t>
   </si>
   <si>
     <r>
@@ -376,24 +381,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Se o issue faz parte de um conjunto maior de tarefas ou projeto, você pode adicionar o issue a um milestone.</t>
+      <t>: Se o issue faz parte de um conjunto maior no projeto.</t>
     </r>
   </si>
   <si>
-    <t>Implementation</t>
-  </si>
-  <si>
-    <t>Initial Considerations</t>
-  </si>
-  <si>
-    <t>OBS</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.8. Feature:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cria novo branch</t>
+    </r>
+  </si>
+  <si>
+    <t>Functional Requirement (User Story)</t>
+  </si>
+  <si>
+    <t>PROJECT MGMT</t>
+  </si>
+  <si>
+    <t>COMMENTS (TASKS)</t>
+  </si>
+  <si>
+    <t>Automaticly only if assignee = col_it or rev_it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,13 +443,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -458,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -485,34 +509,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -522,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,13 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,11 +582,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,17 +595,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,30 +1135,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="D1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
@@ -1157,10 +1167,10 @@
       <c r="B3" s="9">
         <v>10</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1174,8 +1184,8 @@
       <c r="B4" s="9">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="H4" s="8" t="s">
         <v>46</v>
       </c>
@@ -1187,8 +1197,8 @@
       <c r="B5" s="9">
         <v>14</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="H5" s="8" t="s">
         <v>47</v>
       </c>
@@ -1200,8 +1210,8 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
@@ -1272,102 +1282,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662486F5-DD9A-4C28-87E7-50C66D2DE293}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="56.04296875" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.04296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="35.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A2" s="18"/>
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="16"/>
+      <c r="B2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="B3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
@@ -1375,57 +1360,37 @@
       <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
@@ -1433,28 +1398,17 @@
       <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>6</v>
@@ -1462,39 +1416,28 @@
       <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A10" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>39</v>
@@ -1512,32 +1455,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="73.75" x14ac:dyDescent="0.75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>6</v>
@@ -1555,327 +1498,351 @@
         <v>40</v>
       </c>
       <c r="G12" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A19" s="16"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A20" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" ht="46.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A18" s="13" t="s">
+      <c r="B22" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A24" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A26" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A27" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A28" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A30" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A31" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="18" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A32" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A33" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A22" s="18"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A23" s="21" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A34" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A24" s="15" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A35" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A25" s="15" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A36" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A26" s="15" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A37" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A38" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A39" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A27" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A29" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A30" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A31" s="21" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A40" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A41" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A43" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A32" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="15"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A33" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="15"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="15"/>
-    </row>
-    <row r="35" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A35" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A36" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A37" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A38" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="15"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A39" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="15"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A40" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="15"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A41" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A42" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="15"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A43" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="A44" s="17"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A45" s="15"/>
-    </row>
-    <row r="46" spans="1:2" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="A46" s="16"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="1:7" ht="318" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A43:G47"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/UnitTesting_IssueMsg .xlsx
+++ b/docs/UnitTesting_IssueMsg .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venv\.__Projetos\Avalcorp\ESG_VM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924057AB-CF7B-4854-8FDA-D74F2B180B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A10CCB-10FC-4193-8446-9944A6FAF8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="811" firstSheet="1" activeTab="3" xr2:uid="{AF37AB55-194C-4C17-A308-5DCA304A4FDA}"/>
   </bookViews>
@@ -16,12 +16,13 @@
     <sheet name="Testa Formato de Msg no Issue" sheetId="1" r:id="rId1"/>
     <sheet name="Tests em TreatIssue_Opening.yml" sheetId="2" r:id="rId2"/>
     <sheet name="Skills x Teams" sheetId="3" r:id="rId3"/>
-    <sheet name="Issues Format and Responsabilit" sheetId="4" r:id="rId4"/>
-    <sheet name="Kanban Bug Issue" sheetId="5" r:id="rId5"/>
-    <sheet name="Kanban FReq Issue" sheetId="6" r:id="rId6"/>
-    <sheet name="Kanban NFReq Issue" sheetId="7" r:id="rId7"/>
-    <sheet name="Kanban Enabler Issue" sheetId="8" r:id="rId8"/>
-    <sheet name="Kanban Enhance Issue" sheetId="9" r:id="rId9"/>
+    <sheet name="Issues_Kanban" sheetId="10" r:id="rId4"/>
+    <sheet name="Issues Format and Responsabilit" sheetId="4" r:id="rId5"/>
+    <sheet name="Kanban Bug Issue" sheetId="5" r:id="rId6"/>
+    <sheet name="Kanban FReq Issue" sheetId="6" r:id="rId7"/>
+    <sheet name="Kanban NFReq Issue" sheetId="7" r:id="rId8"/>
+    <sheet name="Kanban Enabler Issue" sheetId="8" r:id="rId9"/>
+    <sheet name="Kanban Enhance Issue" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
   <si>
     <t>ISSUE_ASSIGNEES_NAME</t>
   </si>
@@ -414,17 +415,253 @@
     <t>PROJECT MGMT</t>
   </si>
   <si>
-    <t>COMMENTS (TASKS)</t>
-  </si>
-  <si>
     <t>Automaticly only if assignee = col_it or rev_it</t>
+  </si>
+  <si>
+    <t>BACKLOG</t>
+  </si>
+  <si>
+    <t>KANBAN</t>
+  </si>
+  <si>
+    <t>TASKS</t>
+  </si>
+  <si>
+    <t>READY</t>
+  </si>
+  <si>
+    <t>TASKS (Comments)</t>
+  </si>
+  <si>
+    <t>BACKLOG/READY</t>
+  </si>
+  <si>
+    <t>IN PROGRESS/IN REVIEW</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>IN PROGRESS / IN REVIEW</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DesComp_ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conduct_ = "checked"</t>
+    </r>
+  </si>
+  <si>
+    <t>Functional Requirement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DesComp_  &lt;&gt; "checked" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conduct_ = "checked"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DesComp_ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conduct_  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Acceptance_ = "checked" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ALL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TASKS CLOSED</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(DesComp_  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conduct_ &lt;&gt; "checked") </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Skill_ = "" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Criticality_ ="")</t>
+    </r>
+  </si>
+  <si>
+    <t>Verificação dos campos críticos (Skill, Criticality e outros)</t>
+  </si>
+  <si>
+    <t>BACKLOG (STATUS OPEN)</t>
+  </si>
+  <si>
+    <t>READY (STATUS OPEN)</t>
+  </si>
+  <si>
+    <t>IN PROGRESS (STATUS OPEN)</t>
+  </si>
+  <si>
+    <t>IN REVIEW (STATUS OPEN)</t>
+  </si>
+  <si>
+    <t>DONE (STATUS CLOSED)</t>
+  </si>
+  <si>
+    <t>ERROR (STATUS CLOSED)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +688,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -482,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -520,7 +765,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -529,11 +776,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,26 +872,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,8 +885,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,6 +1416,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA838CB1-E8D0-4DF8-AF2E-6EB4C9BF74C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F68ABD-8772-48B1-8991-897A1B11244C}">
   <dimension ref="A1:C3"/>
@@ -1135,30 +1498,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="D1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
@@ -1167,10 +1530,10 @@
       <c r="B3" s="9">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1184,8 +1547,8 @@
       <c r="B4" s="9">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="H4" s="8" t="s">
         <v>46</v>
       </c>
@@ -1197,8 +1560,8 @@
       <c r="B5" s="9">
         <v>14</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="H5" s="8" t="s">
         <v>47</v>
       </c>
@@ -1210,8 +1573,8 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
@@ -1281,11 +1644,309 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662486F5-DD9A-4C28-87E7-50C66D2DE293}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274246C8-1D7B-49C1-B3D1-2CC28DF23F96}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B14" sqref="B14:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="25.76953125" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="3.31640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.40625" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="7" max="7" width="7.1328125" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="9" width="35.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="21"/>
+      <c r="B2" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="21"/>
+      <c r="B3" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="21"/>
+      <c r="B4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A15" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A17" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:D9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662486F5-DD9A-4C28-87E7-50C66D2DE293}">
+  <dimension ref="A1:G58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1293,562 +1954,679 @@
     <col min="1" max="1" width="56.04296875" customWidth="1"/>
     <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.04296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="16"/>
-      <c r="B2" s="20" t="s">
+      <c r="C1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="28"/>
+      <c r="B2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4" s="28"/>
+      <c r="B4" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="28"/>
+      <c r="B5" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A3" s="18" t="s">
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A5" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>6</v>
+      <c r="B6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A9" s="16" t="s">
+      <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A19" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A10" s="16"/>
-      <c r="B10" s="7" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A20" s="21"/>
+      <c r="B20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A11" s="7" t="s">
+    <row r="21" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G21" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A12" s="7" t="s">
+    <row r="22" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A13" s="7" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A14" s="7" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="B25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G25" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A15" s="7" t="s">
+    <row r="29" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="46.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A32" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A34" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A35" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A36" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A37" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A38" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A19" s="16"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A20" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" ht="46.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-    </row>
-    <row r="22" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A22" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A23" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-    </row>
-    <row r="24" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A24" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-    </row>
-    <row r="25" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A25" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-    </row>
-    <row r="26" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A26" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A27" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-    </row>
-    <row r="28" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A28" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A29" s="24" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A40" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A30" s="25" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A41" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A31" s="25" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A42" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A32" s="24" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A43" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A33" s="25" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A44" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A34" s="24" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A45" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A35" s="24" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A36" s="25" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A47" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A37" s="27" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A48" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A38" s="24" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A49" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A39" s="24" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A50" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-    </row>
-    <row r="40" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A40" s="25" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A51" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A41" s="27" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A52" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="A42" s="15"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A43" s="28" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" ht="18.5" x14ac:dyDescent="0.75">
+      <c r="A53" s="15"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A54" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-    </row>
-    <row r="47" spans="1:7" ht="318" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="1:7" ht="318" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A43:G47"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="A54:G58"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8091F9-8276-4EBA-959C-9675E2CE363F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1862,7 +2640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE9E530-6434-40D5-85A1-15A72B92A7C4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1876,7 +2654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357937-32BA-4486-B49A-4437D20089DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1890,7 +2668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD53C8E-C643-4BCE-BF25-2F68FDF70BBB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1902,18 +2680,4 @@
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA838CB1-E8D0-4DF8-AF2E-6EB4C9BF74C6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>